--- a/Blatt 4/3b-d.xlsx
+++ b/Blatt 4/3b-d.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="5820"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="16575" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>n_1</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>d)</t>
-  </si>
-  <si>
-    <t>dpu)</t>
   </si>
   <si>
     <t>Paths</t>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">result </t>
+  </si>
+  <si>
+    <t>dpu</t>
   </si>
 </sst>
 </file>
@@ -198,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -206,11 +206,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -218,6 +267,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -498,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I51"/>
+  <dimension ref="B2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B20" sqref="B20:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,18 +568,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -534,18 +588,9 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
@@ -554,15 +599,12 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -572,14 +614,14 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -589,14 +631,14 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -606,14 +648,14 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -623,14 +665,14 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
@@ -640,14 +682,14 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
@@ -656,9 +698,23 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
@@ -669,18 +725,19 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -690,6 +747,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -698,6 +756,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>5</v>
       </c>
@@ -706,92 +765,85 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
+      <c r="D33" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -802,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -810,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -818,80 +870,75 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>8</v>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D45" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Blatt 4/3b-d.xlsx
+++ b/Blatt 4/3b-d.xlsx
@@ -552,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I45"/>
+  <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,110 +835,110 @@
         <v>12</v>
       </c>
     </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D40" t="s">
         <v>26</v>
       </c>
     </row>
